--- a/05-240408-Template-Test-5520.xlsx
+++ b/05-240408-Template-Test-5520.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmeijer\Work\EXTR-Cases\CH-Uni-Bern\migration\Uni-Bern-python-v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmeijer\Work\Python\Package-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C5508C-75A9-441A-94D6-B84311D6026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46549E32-BC42-40E7-B1A7-B49F8E4A1A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16155" yWindow="3225" windowWidth="27795" windowHeight="15210" xr2:uid="{B94137BB-2BFF-44F9-ADE5-2D07B72EC917}"/>
   </bookViews>
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:Y32"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,7 +2832,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>49</v>
@@ -2865,7 +2865,7 @@
         <v>27</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U25" s="18" t="s">
         <v>49</v>
